--- a/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
+++ b/LabReport/Lab3/Lab3 (Graph Coverage  test case design).xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26426"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D946D6B4-9A32-4383-BD92-4155E85573DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CF26AE18-3E40-47A9-871E-8DD99E4603F7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="0" windowHeight="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="81">
   <si>
     <t>Class</t>
   </si>
@@ -174,6 +174,9 @@
     <t>IllegalArgumentException</t>
   </si>
   <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/getcharindex.jpg </t>
+  </si>
+  <si>
     <t>P1:{n1,n2,n3},
 P2:{n1,n2,n4}</t>
   </si>
@@ -210,6 +213,9 @@
     <t>the string geohash</t>
   </si>
   <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/encodebase32.jpg </t>
+  </si>
+  <si>
     <t>P1:{n1,n2,n4,n5,n6,n7,n9,n11},
 P2:{n1,n2,n3,n5,n6,n7,n8,n7,n9,n10,n11}</t>
   </si>
@@ -238,6 +244,9 @@
     <t>padded string with left zeros.</t>
   </si>
   <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/podlefthtozerolength.jpg </t>
+  </si>
+  <si>
     <t>P1:{n1,n2,n3,n4,n5,n4,n6},
 P2:{n1,n7}</t>
   </si>
@@ -266,6 +275,9 @@
   </si>
   <si>
     <t>the string encoded geohash</t>
+  </si>
+  <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/fromlongtostring.jpg </t>
   </si>
   <si>
     <t>P1:{n1,n2-a,n3},
@@ -305,6 +317,9 @@
     <t>geohash of given length for the given point</t>
   </si>
   <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/encodehashtolong.jpg </t>
+  </si>
+  <si>
     <t>P1:{&lt;n1,n2,n3,n4,n5,n6,n13,n14,n15&gt;},P2:{&lt;n1,n2,n3,n4,n5,n7,n13,n14,n15&gt;},P3:{&lt;n1,n2,n3,n8,n9,n10,n12,n14,n15&gt;},P4:{&lt;n1,n2,n3,n8,n9,n111,n12,n14,n15&gt;},P5:{&lt;n1,n2,n3,n8,n9,n111,n12,n14,n2,n3,n8,n9,n11,n12,n14,n15&gt;}</t>
   </si>
   <si>
@@ -334,6 +349,9 @@
   </si>
   <si>
     <t>hash of adjacent hash</t>
+  </si>
+  <si>
+    <t>https://course.selab.ml/stv-gitlab/111598027/GeoProject/blob/master/LabReport/Lab3/Photo/adjacenthash.jpg </t>
   </si>
   <si>
     <t>P1:{n1,n2,n3} </t>
@@ -364,7 +382,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -387,18 +405,6 @@
       <color theme="1"/>
       <name val="Calibri"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="12"/>
-      <color rgb="FF0563C1"/>
-      <name val="Calibri"/>
     </font>
     <font>
       <b/>
@@ -446,7 +452,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -459,19 +465,13 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -798,31 +798,35 @@
       <c r="F2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="4"/>
-      <c r="H2" s="5"/>
+      <c r="G2" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="H2" s="5" t="s">
+        <v>22</v>
+      </c>
       <c r="I2" s="3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="L2" s="3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N2" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O2" s="3" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="16.5" customHeight="1">
@@ -830,45 +834,49 @@
         <v>16</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="E3" s="6" t="s">
         <v>32</v>
       </c>
+      <c r="E3" s="4" t="s">
+        <v>33</v>
+      </c>
       <c r="F3" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="L3" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G3" s="4"/>
-      <c r="H3" s="5"/>
-      <c r="I3" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N3" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O3" s="3" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="16.5" customHeight="1">
@@ -876,187 +884,203 @@
         <v>16</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="F4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="I4" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="L4" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="4"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>25</v>
-      </c>
       <c r="M4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N4" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O4" s="3" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="16.5" customHeight="1">
       <c r="A5" s="3" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G5" s="4"/>
-      <c r="H5" s="5"/>
+      <c r="G5" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="H5" s="5" t="s">
+        <v>53</v>
+      </c>
       <c r="I5" s="3" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="L5" s="3" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="M5" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N5" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O5" s="6" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="O5" s="4" t="s">
+        <v>58</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:26" ht="16.5" customHeight="1">
       <c r="A6" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B6" s="7" t="s">
-        <v>56</v>
+        <v>49</v>
+      </c>
+      <c r="B6" s="5" t="s">
+        <v>60</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="E6" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="F6" t="s">
-        <v>26</v>
-      </c>
-      <c r="G6" s="4"/>
-      <c r="H6" s="5"/>
-      <c r="I6" s="7" t="s">
-        <v>60</v>
+        <v>27</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="I6" s="5" t="s">
+        <v>65</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="K6" s="6" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>67</v>
       </c>
       <c r="L6" s="3" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="M6" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="O6" s="9" t="s">
-        <v>64</v>
-      </c>
-      <c r="P6" s="6" t="s">
-        <v>65</v>
+        <v>27</v>
+      </c>
+      <c r="O6" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="P6" s="4" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="16.5" customHeight="1">
       <c r="A7" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>66</v>
+        <v>49</v>
+      </c>
+      <c r="B7" s="5" t="s">
+        <v>71</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="G7" s="4"/>
-      <c r="H7" s="5"/>
-      <c r="I7" s="7" t="s">
-        <v>69</v>
+      <c r="G7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7" s="5" t="s">
+        <v>75</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>71</v>
+        <v>76</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>77</v>
       </c>
       <c r="L7" s="3" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="M7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="N7" s="3" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="O7" s="3" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="15" customHeight="1">
-      <c r="K8" s="8"/>
+      <c r="K8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="16.5" customHeight="1"/>
     <row r="10" spans="1:26" ht="16.5" customHeight="1"/>
